--- a/Excel/Data files/Lecture_5_Lookups.xlsx
+++ b/Excel/Data files/Lecture_5_Lookups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C734CA-802C-4089-B9D4-C16A5710C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA31F7-8463-4E79-BE78-F65C8CC00CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>Example</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>MATCH</t>
+  </si>
+  <si>
+    <t>wqq</t>
+  </si>
+  <si>
+    <t>q111111111111111111111111111111111111111111111111</t>
   </si>
 </sst>
 </file>
@@ -580,6 +586,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -608,33 +641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,24 +1563,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1583,13 +1589,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1612,11 +1618,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1639,11 +1645,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="L6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1662,11 +1668,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="L7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1685,11 +1691,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
@@ -1708,11 +1714,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="L9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1731,20 +1737,20 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="M11" s="21"/>
       <c r="O11" s="25"/>
     </row>
@@ -1764,13 +1770,13 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="L14" s="22" t="s">
         <v>16</v>
       </c>
@@ -1779,11 +1785,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="22" t="s">
         <v>6</v>
       </c>
@@ -1792,11 +1798,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
@@ -1806,11 +1812,11 @@
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="L17" s="22" t="s">
         <v>14</v>
       </c>
@@ -1820,11 +1826,11 @@
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="L18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1834,11 +1840,11 @@
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="L19" s="22" t="s">
         <v>7</v>
       </c>
@@ -1847,11 +1853,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
       <c r="L20" s="22" t="s">
         <v>9</v>
       </c>
@@ -1860,11 +1866,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -1874,15 +1880,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C4:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1926,24 +1932,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1952,13 +1958,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1967,11 +1973,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1990,11 +1996,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
@@ -2009,11 +2015,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="L7" s="22" t="s">
         <v>6</v>
       </c>
@@ -2028,11 +2034,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
@@ -2047,11 +2053,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2066,11 +2072,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
@@ -2086,11 +2092,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2118,22 +2124,22 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="20" t="s">
         <v>1</v>
       </c>
@@ -2161,11 +2167,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2192,11 +2198,11 @@
       </c>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="L17" s="22" t="s">
         <v>17</v>
       </c>
@@ -2223,32 +2229,32 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2271,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2304,23 +2310,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2353,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>4</v>
@@ -2536,64 +2542,64 @@
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2616,7 +2622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2648,23 +2656,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2875,32 +2883,32 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="L13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="23"/>
       <c r="M15" s="20" t="s">
         <v>2</v>
@@ -2913,11 +2921,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="30" t="s">
         <v>26</v>
       </c>
@@ -2934,42 +2942,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="L18" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -2977,8 +2985,12 @@
         <f>MATCH(P5,M5:O5,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f>MATCH(P5,M5:O5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="22" t="s">
         <v>6</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="22" t="s">
         <v>7</v>
       </c>
@@ -3017,7 +3029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3049,23 +3063,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3247,13 +3261,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="M13" s="28" t="s">
         <v>13</v>
       </c>
@@ -3263,11 +3277,11 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="M14" s="24">
         <v>93</v>
       </c>
@@ -3277,11 +3291,11 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="M15" s="24">
         <v>62</v>
       </c>
@@ -3290,11 +3304,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="M16" s="24">
         <v>82</v>
       </c>
@@ -3303,11 +3317,11 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="M17" s="24">
         <v>99</v>
       </c>
@@ -3316,11 +3330,11 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="M18" s="24">
         <v>65</v>
       </c>
@@ -3329,11 +3343,11 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="M19" s="24">
         <v>85</v>
       </c>
@@ -3342,11 +3356,11 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="M20" s="24">
         <v>100</v>
       </c>

--- a/Excel/Data files/Lecture_5_Lookups.xlsx
+++ b/Excel/Data files/Lecture_5_Lookups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA31F7-8463-4E79-BE78-F65C8CC00CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7026E3-3217-45EF-A00C-F2CBEA7A31B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>Example</t>
   </si>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t>MATCH</t>
-  </si>
-  <si>
-    <t>wqq</t>
-  </si>
-  <si>
-    <t>q111111111111111111111111111111111111111111111111</t>
   </si>
 </sst>
 </file>
@@ -586,6 +580,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,36 +635,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,9 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1563,24 +1555,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1589,13 +1581,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1618,11 +1610,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1645,11 +1637,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1668,11 +1660,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="L7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1691,11 +1683,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
@@ -1714,11 +1706,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="L9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1737,20 +1729,20 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="M11" s="21"/>
       <c r="O11" s="25"/>
     </row>
@@ -1770,13 +1762,13 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="L14" s="22" t="s">
         <v>16</v>
       </c>
@@ -1785,11 +1777,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="22" t="s">
         <v>6</v>
       </c>
@@ -1798,11 +1790,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
@@ -1812,11 +1804,11 @@
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="L17" s="22" t="s">
         <v>14</v>
       </c>
@@ -1826,11 +1818,11 @@
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="L18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1840,11 +1832,11 @@
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="L19" s="22" t="s">
         <v>7</v>
       </c>
@@ -1853,11 +1845,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
       <c r="L20" s="22" t="s">
         <v>9</v>
       </c>
@@ -1866,11 +1858,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -1880,15 +1872,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C4:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1899,9 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1932,24 +1922,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1958,13 +1948,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1973,11 +1963,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1996,11 +1986,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
@@ -2015,11 +2005,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="L7" s="22" t="s">
         <v>6</v>
       </c>
@@ -2034,11 +2024,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
@@ -2053,11 +2043,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2072,11 +2062,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
@@ -2092,11 +2082,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2124,22 +2114,22 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="20" t="s">
         <v>1</v>
       </c>
@@ -2167,11 +2157,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2198,11 +2188,11 @@
       </c>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="L17" s="22" t="s">
         <v>17</v>
       </c>
@@ -2229,32 +2219,32 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2277,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2310,23 +2300,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2359,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="O4" s="20" t="s">
         <v>4</v>
@@ -2492,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="23"/>
     </row>
@@ -2506,11 +2496,11 @@
         <v>23</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="23">
         <f>IF(M13="Maths",1,IF(M13="Science",2,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2525,7 +2515,7 @@
       </c>
       <c r="M14" s="23">
         <f>INDEX(M5:O9,M12,N13)</f>
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N14" s="23"/>
     </row>
@@ -2534,7 +2524,7 @@
       <c r="C15" s="12"/>
       <c r="M15" cm="1">
         <f t="array" ref="M15">INDEX(M5:O9,M12,N13)</f>
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2542,64 +2532,64 @@
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2622,9 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2656,23 +2644,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2883,32 +2871,32 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="L13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="23"/>
       <c r="M15" s="20" t="s">
         <v>2</v>
@@ -2921,11 +2909,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="30" t="s">
         <v>26</v>
       </c>
@@ -2942,42 +2930,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="L18" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -2985,12 +2973,8 @@
         <f>MATCH(P5,M5:O5,0)</f>
         <v>1</v>
       </c>
-      <c r="N21">
-        <f>MATCH(P5,M5:O5,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="22" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="22" t="s">
         <v>7</v>
       </c>
@@ -3029,9 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3063,23 +3045,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3261,13 +3243,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="M13" s="28" t="s">
         <v>13</v>
       </c>
@@ -3277,11 +3259,11 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="M14" s="24">
         <v>93</v>
       </c>
@@ -3291,11 +3273,11 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="M15" s="24">
         <v>62</v>
       </c>
@@ -3304,11 +3286,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="M16" s="24">
         <v>82</v>
       </c>
@@ -3317,11 +3299,11 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="M17" s="24">
         <v>99</v>
       </c>
@@ -3330,11 +3312,11 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="M18" s="24">
         <v>65</v>
       </c>
@@ -3343,11 +3325,11 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="M19" s="24">
         <v>85</v>
       </c>
@@ -3356,11 +3338,11 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="M20" s="24">
         <v>100</v>
       </c>

--- a/Excel/Data files/Lecture_5_Lookups.xlsx
+++ b/Excel/Data files/Lecture_5_Lookups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7026E3-3217-45EF-A00C-F2CBEA7A31B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79405B13-02C2-4411-9D12-9FDF3556F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Example</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>MATCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =INDEX(M5:O9,M12,N13)</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -580,6 +583,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -610,33 +640,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,6 +667,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1524,7 +1528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="63" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1555,24 +1561,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1581,13 +1587,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1610,11 +1616,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1637,11 +1643,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="L6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1654,17 +1660,14 @@
       <c r="O6" s="22">
         <v>43</v>
       </c>
-      <c r="P6" s="22">
-        <f t="shared" ref="P6:P9" si="0">VLOOKUP(L6,$L$14:$M$21,2,0)</f>
-        <v>62</v>
-      </c>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="L7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1677,17 +1680,14 @@
       <c r="O7" s="22">
         <v>79</v>
       </c>
-      <c r="P7" s="22">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
@@ -1700,17 +1700,14 @@
       <c r="O8" s="22">
         <v>82</v>
       </c>
-      <c r="P8" s="22">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="L9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1723,26 +1720,23 @@
       <c r="O9" s="22">
         <v>30</v>
       </c>
-      <c r="P9" s="22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="M11" s="21"/>
       <c r="O11" s="25"/>
     </row>
@@ -1762,13 +1756,13 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="L14" s="22" t="s">
         <v>16</v>
       </c>
@@ -1777,11 +1771,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="22" t="s">
         <v>6</v>
       </c>
@@ -1790,11 +1784,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
@@ -1804,11 +1798,11 @@
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="L17" s="22" t="s">
         <v>14</v>
       </c>
@@ -1818,11 +1812,11 @@
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="L18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1832,11 +1826,11 @@
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="L19" s="22" t="s">
         <v>7</v>
       </c>
@@ -1845,11 +1839,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
       <c r="L20" s="22" t="s">
         <v>9</v>
       </c>
@@ -1858,11 +1852,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -1872,15 +1866,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="C4:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1891,7 +1885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1922,24 +1918,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1948,13 +1944,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1963,11 +1959,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1986,11 +1982,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
@@ -2005,11 +2001,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
       <c r="L7" s="22" t="s">
         <v>6</v>
       </c>
@@ -2024,11 +2020,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
       <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
@@ -2043,11 +2039,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
       <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2062,11 +2058,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
@@ -2082,11 +2078,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2094,14 +2090,8 @@
         <f>HLOOKUP(M5,$M$15:$S$17,2,0)</f>
         <v>83</v>
       </c>
-      <c r="N11" s="23">
-        <f t="shared" ref="N11:O11" si="0">HLOOKUP(N5,$M$15:$S$17,2,0)</f>
-        <v>99</v>
-      </c>
-      <c r="O11" s="23">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2114,22 +2104,22 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="20" t="s">
         <v>1</v>
       </c>
@@ -2157,11 +2147,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2188,11 +2178,11 @@
       </c>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="L17" s="22" t="s">
         <v>17</v>
       </c>
@@ -2219,32 +2209,32 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2267,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2300,23 +2290,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2496,11 +2486,11 @@
         <v>23</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" s="23">
         <f>IF(M13="Maths",1,IF(M13="Science",2,3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2515,7 +2505,7 @@
       </c>
       <c r="M14" s="23">
         <f>INDEX(M5:O9,M12,N13)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N14" s="23"/>
     </row>
@@ -2524,72 +2514,79 @@
       <c r="C15" s="12"/>
       <c r="M15" cm="1">
         <f t="array" ref="M15">INDEX(M5:O9,M12,N13)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="13"/>
+      <c r="L16" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">INDEX(M5:O9,M12,N13)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2612,7 +2609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2644,23 +2643,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2871,32 +2870,32 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="L13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="L15" s="23"/>
       <c r="M15" s="20" t="s">
         <v>2</v>
@@ -2909,11 +2908,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="L16" s="30" t="s">
         <v>26</v>
       </c>
@@ -2930,42 +2929,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+    <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="M17">
+        <f>MATCH(M10,M5:M9,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="L18" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+    <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -2973,8 +2976,12 @@
         <f>MATCH(P5,M5:O5,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f>MATCH(P5,M5:O5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="22" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="22" t="s">
         <v>7</v>
       </c>
@@ -3045,23 +3052,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3243,13 +3250,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="M13" s="28" t="s">
         <v>13</v>
       </c>
@@ -3259,11 +3266,11 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="M14" s="24">
         <v>93</v>
       </c>
@@ -3273,11 +3280,11 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="M15" s="24">
         <v>62</v>
       </c>
@@ -3286,11 +3293,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
       <c r="M16" s="24">
         <v>82</v>
       </c>
@@ -3299,11 +3306,11 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
       <c r="M17" s="24">
         <v>99</v>
       </c>
@@ -3312,11 +3319,11 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="M18" s="24">
         <v>65</v>
       </c>
@@ -3325,11 +3332,11 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="M19" s="24">
         <v>85</v>
       </c>
@@ -3338,11 +3345,11 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="M20" s="24">
         <v>100</v>
       </c>

--- a/Excel/Data files/Lecture_5_Lookups.xlsx
+++ b/Excel/Data files/Lecture_5_Lookups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79405B13-02C2-4411-9D12-9FDF3556F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E188E3E9-ED63-4121-9C25-615B7D2C153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="2" r:id="rId1"/>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -583,6 +583,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,36 +640,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,7 +667,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1528,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="63" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P9"/>
+    <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1561,24 +1560,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1587,13 +1586,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1616,11 +1615,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1643,11 +1642,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1663,11 +1662,11 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="L7" s="22" t="s">
         <v>7</v>
       </c>
@@ -1683,11 +1682,11 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="L8" s="22" t="s">
         <v>8</v>
       </c>
@@ -1703,11 +1702,11 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="L9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1723,20 +1722,20 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="M11" s="21"/>
       <c r="O11" s="25"/>
     </row>
@@ -1756,13 +1755,13 @@
       <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="L14" s="22" t="s">
         <v>16</v>
       </c>
@@ -1771,11 +1770,11 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="22" t="s">
         <v>6</v>
       </c>
@@ -1784,11 +1783,11 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
@@ -1798,11 +1797,11 @@
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="L17" s="22" t="s">
         <v>14</v>
       </c>
@@ -1812,11 +1811,11 @@
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="L18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1826,11 +1825,11 @@
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="L19" s="22" t="s">
         <v>7</v>
       </c>
@@ -1839,11 +1838,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
       <c r="L20" s="22" t="s">
         <v>9</v>
       </c>
@@ -1852,11 +1851,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="L21" s="22" t="s">
         <v>5</v>
       </c>
@@ -1885,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:O11"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1918,24 +1917,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1944,13 +1943,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1959,11 +1958,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1982,11 +1981,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>5</v>
       </c>
@@ -2001,11 +2000,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="L7" s="22" t="s">
         <v>6</v>
       </c>
@@ -2020,11 +2019,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
@@ -2039,11 +2038,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2058,11 +2057,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
@@ -2078,11 +2077,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
@@ -2104,22 +2103,22 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="20" t="s">
         <v>1</v>
       </c>
@@ -2147,11 +2146,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2178,11 +2177,11 @@
       </c>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="L17" s="22" t="s">
         <v>17</v>
       </c>
@@ -2209,32 +2208,32 @@
       </c>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2257,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2290,23 +2289,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2486,11 +2485,11 @@
         <v>23</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="23">
         <f>IF(M13="Maths",1,IF(M13="Science",2,3))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2505,7 +2504,7 @@
       </c>
       <c r="M14" s="23">
         <f>INDEX(M5:O9,M12,N13)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N14" s="23"/>
     </row>
@@ -2513,80 +2512,76 @@
       <c r="B15" s="4"/>
       <c r="C15" s="12"/>
       <c r="M15" cm="1">
-        <f t="array" ref="M15">INDEX(M5:O9,M12,N13)</f>
-        <v>45</v>
+        <f t="array" ref="M15">INDEX($M$5:$O$9,M12,N13)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="13"/>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="M16" cm="1">
-        <f t="array" ref="M16">INDEX(M5:O9,M12,N13)</f>
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2609,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" topLeftCell="F4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2643,23 +2638,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2720,7 +2715,7 @@
       <c r="L5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="40">
         <v>99</v>
       </c>
       <c r="N5" s="22">
@@ -2749,7 +2744,7 @@
       <c r="M6" s="22">
         <v>65</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="40">
         <v>79</v>
       </c>
       <c r="O6" s="22">
@@ -2778,7 +2773,7 @@
       <c r="N7" s="22">
         <v>80</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="40">
         <v>84</v>
       </c>
       <c r="P7" s="35">
@@ -2801,7 +2796,7 @@
       <c r="M8" s="40">
         <v>100</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="22">
         <v>99</v>
       </c>
       <c r="O8" s="22">
@@ -2827,15 +2822,15 @@
       <c r="M9" s="22">
         <v>45</v>
       </c>
-      <c r="N9" s="22">
-        <v>60</v>
+      <c r="N9" s="40">
+        <v>100</v>
       </c>
       <c r="O9" s="22">
         <v>30</v>
       </c>
       <c r="P9" s="35">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2854,7 +2849,7 @@
       </c>
       <c r="N10" s="32">
         <f t="shared" ref="N10:O10" si="1">MAX(N5:N9)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O10" s="32">
         <f t="shared" si="1"/>
@@ -2870,32 +2865,32 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="L13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="L15" s="23"/>
       <c r="M15" s="20" t="s">
         <v>2</v>
@@ -2908,11 +2903,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="L16" s="30" t="s">
         <v>26</v>
       </c>
@@ -2920,49 +2915,39 @@
         <f>MATCH(M10,M5:M9,0)</f>
         <v>4</v>
       </c>
-      <c r="N16" s="23">
-        <f t="shared" ref="N16:O16" si="2">MATCH(N10,N5:N9,0)</f>
-        <v>4</v>
-      </c>
-      <c r="O16" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="M17">
-        <f>MATCH(M10,M5:M9,0)</f>
-        <v>4</v>
-      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="L18" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
         <v>28</v>
@@ -2985,19 +2970,13 @@
       <c r="L22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="23">
-        <f t="shared" ref="M22:M23" si="3">MATCH(P6,M6:O6,0)</f>
-        <v>2</v>
-      </c>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M23" s="23">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+      <c r="M23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3020,7 +2999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3052,23 +3033,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -3155,10 +3136,7 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="24">
-        <f t="shared" ref="P6:P9" si="0">INDEX($M$14:$N$21,MATCH(L6,$N$14:$N$21,0),1)</f>
-        <v>62</v>
-      </c>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C7" s="63"/>
@@ -3178,10 +3156,7 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="24">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C8" s="63"/>
@@ -3201,10 +3176,7 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="24">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="63"/>
@@ -3224,10 +3196,7 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="24">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
@@ -3250,13 +3219,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="M13" s="28" t="s">
         <v>13</v>
       </c>
@@ -3266,11 +3235,11 @@
     </row>
     <row r="14" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
       <c r="M14" s="24">
         <v>93</v>
       </c>
@@ -3280,11 +3249,11 @@
     </row>
     <row r="15" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="M15" s="24">
         <v>62</v>
       </c>
@@ -3293,11 +3262,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="M16" s="24">
         <v>82</v>
       </c>
@@ -3306,11 +3275,11 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="M17" s="24">
         <v>99</v>
       </c>
@@ -3319,11 +3288,11 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
       <c r="M18" s="24">
         <v>65</v>
       </c>
@@ -3332,11 +3301,11 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
       <c r="M19" s="24">
         <v>85</v>
       </c>
@@ -3345,11 +3314,11 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="M20" s="24">
         <v>100</v>
       </c>
